--- a/data/Szenario_Link/Power_Links.xlsx
+++ b/data/Szenario_Link/Power_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Szenario_Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B64328-95A8-4BFE-A59F-C44A3B0C7E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C1F90-2103-4A01-B960-AC7147C086B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,8 +907,7 @@
         <v>605.34468000000004</v>
       </c>
       <c r="G8" s="13">
-        <f>3500000/30/200</f>
-        <v>583.33333333333337</v>
+        <v>600</v>
       </c>
       <c r="H8" s="13">
         <v>200</v>
@@ -930,8 +929,7 @@
         <v>282.49416000000002</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" ref="G9:G16" si="0">3500000/30/200</f>
-        <v>583.33333333333337</v>
+        <v>400</v>
       </c>
       <c r="H9" s="13">
         <v>200</v>
@@ -953,8 +951,7 @@
         <v>403.56315000000001</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>500</v>
       </c>
       <c r="H10" s="13">
         <v>200</v>
@@ -976,8 +973,7 @@
         <v>807.12621000000001</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>700</v>
       </c>
       <c r="H11" s="13">
         <v>200</v>
@@ -999,8 +995,7 @@
         <v>201.78153</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>330</v>
       </c>
       <c r="H12" s="13">
         <v>200</v>
@@ -1022,8 +1017,7 @@
         <v>1008.90774</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>800</v>
       </c>
       <c r="H13" s="13">
         <v>200</v>
@@ -1045,8 +1039,7 @@
         <v>322.85052000000002</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>420</v>
       </c>
       <c r="H14" s="13">
         <v>200</v>
@@ -1068,8 +1061,7 @@
         <v>201.78153</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>350</v>
       </c>
       <c r="H15" s="13">
         <v>200</v>
@@ -1091,8 +1083,7 @@
         <v>201.78153</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="0"/>
-        <v>583.33333333333337</v>
+        <v>350</v>
       </c>
       <c r="H16" s="13">
         <v>200</v>
